--- a/application_framework/application_framework/batch/jsr352/images/jsr352_images.xlsx
+++ b/application_framework/application_framework/batch/jsr352/images/jsr352_images.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="責務配置" sheetId="1" r:id="rId1"/>
     <sheet name="アーキテクチャ" sheetId="2" r:id="rId2"/>
     <sheet name="構成図" sheetId="3" r:id="rId3"/>
+    <sheet name="運用設計" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
       <t>batchlet</t>
@@ -51,12 +52,44 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>障害発生時のログ参照イメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ処理遅延時のログ参照イメージ</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +120,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,11 +153,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6044,6 +6090,1732 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="メモ 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="1752599"/>
+          <a:ext cx="4600575" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ERROR operator  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイルが存在しません。正しく受信できているか確認してください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="1514475"/>
+          <a:ext cx="2352675" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>運用担当者向けログ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="2438400"/>
+          <a:ext cx="2352675" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>全てのログ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="メモ 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276224" y="2686050"/>
+          <a:ext cx="4591051" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ERROR operator  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルが存在しません。正しく受信できているか確認してください。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>java.io.FileNotFoundException: input file is not found.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>at com.example.SampleBatchlet.process(SampleBatchlet.java:20)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>    // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>省略</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="1204913"/>
+          <a:ext cx="1990725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247651" y="1504950"/>
+          <a:ext cx="647699" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>参照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828799" y="1266825"/>
+          <a:ext cx="2114551" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>運用担当者で対処できない場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>開発者に連絡</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391026" y="2247901"/>
+          <a:ext cx="990600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>参照、調査</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="カギ線コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="36" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="1204913"/>
+          <a:ext cx="12700" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="1"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="476251" y="1204912"/>
+          <a:ext cx="66675" cy="1847849"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 442857"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="5314950"/>
+          <a:ext cx="2352675" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>進捗ログ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190503</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="メモ 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390528" y="8982074"/>
+          <a:ext cx="5753097" cy="1181101"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>start job. job name: [job]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>start step. job name: [job] step name: [step]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>job name: [job] step name: [step] input count: [10000]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>job name: [job] step name: [step] tps: [250.00] estimated end time: [2017/02/13 04:02:25.656] remaining count: [9000]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>job name: [job] step name: [step] tps: [384.62] estimated end time: [2017/02/13 04:02:25.668] remaining count: [8000]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>job name: [job] step name: [step] tps: [409.84] estimated end time: [2017/02/13 04:02:25.677] remaining count: [7000]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190504</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="1"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="390529" y="7662863"/>
+          <a:ext cx="76197" cy="1909762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 400012"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="4972050"/>
+          <a:ext cx="647699" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>参照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="7686675"/>
+          <a:ext cx="2114551" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>バッチ処理の終了予定時間を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>顧客に報告する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40" descr="会社で働く人のイラスト（男性）"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="542925" y="228600"/>
+          <a:ext cx="1266825" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42" descr="会社で働く人のイラスト（男性）"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3800475" y="571500"/>
+          <a:ext cx="1266825" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1714500"/>
+          <a:ext cx="942975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>運用担当者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="1704975"/>
+          <a:ext cx="942975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>開発者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47" descr="会社で働く人のイラスト（男性）"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="466725" y="7839075"/>
+          <a:ext cx="1266825" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6257925"/>
+          <a:ext cx="942975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>運用担当者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314826" y="8229601"/>
+          <a:ext cx="533400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>顧客</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>48000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>67050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54" descr="真面目に書類を読んでいる人のイラスト（男性）"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3981450" y="7029450"/>
+          <a:ext cx="1267200" cy="1267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="7662863"/>
+          <a:ext cx="2247900" cy="187"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6338,8 +8110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="BT15" sqref="BT15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6354,8 +8126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H3:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AX37" sqref="AX37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6382,7 +8154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="BE31" sqref="BE31"/>
     </sheetView>
   </sheetViews>
@@ -6392,4 +8164,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AI32" sqref="AI32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>